--- a/projects.xlsx
+++ b/projects.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>requried-education-level</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Keyword</t>
         </is>
       </c>
@@ -458,78 +463,93 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>(주)미어캣커뮤니케이션즈</t>
+          <t>개발자 경력직 채용</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>경기 &amp;gt; 고양시 일산서구</t>
+          <t>부산 &amp;gt; 중구</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+          <t>{'code': 2, 'min': 5, 'max': 0, 'name': '경력5년↑'}</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>커뮤니티,컨텐츠제공</t>
+          <t>{'code': '0', 'name': '학력무관'}</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>종합포털,컨텐츠제공</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>프로페셔날핸즈인핸즈코리아(주)</t>
+          <t>AI 개발(OCR, Object Detection, NER) - IT 솔루션업체</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>세종 &amp;gt; 세종특별자치시</t>
+          <t>대전 &amp;gt; 유성구</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 17, 'max': 0, 'name': '경력17년↑'}</t>
+          <t>{'code': 2, 'min': 3, 'max': 0, 'name': '경력3년↑'}</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SI·시스템통합,소프트웨어개발,솔루션업체</t>
+          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>솔루션업체</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>이엠솔루션</t>
+          <t>웹 퍼블리셔 프리랜서 모집</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>경남 &amp;gt; 김해시,경남 &amp;gt; 밀양시,경남 &amp;gt; 양산시,경남 &amp;gt; 창원시</t>
+          <t>대전 &amp;gt; 서구</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'code': 3, 'min': 3, 'max': 15, 'name': '신입/경력'}</t>
+          <t>{'code': 2, 'min': 3, 'max': 10, 'name': '경력 3~10년'}</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SI·시스템통합,소프트웨어개발,솔루션업체</t>
+          <t>{'code': '0', 'name': '학력무관'}</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>웹에이전시</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>프로페셔날핸즈인핸즈코리아(주)</t>
+          <t>[IT 기업] Recruiting Manager</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>세종 &amp;gt; 세종특별자치시</t>
+          <t>서울 &amp;gt; 금천구</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -539,139 +559,2874 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SI·시스템통합,소프트웨어개발,솔루션업체</t>
+          <t>{'code': '0', 'name': '학력무관'}</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>전자상거래</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>프로페셔날핸즈인핸즈코리아(주)</t>
+          <t>[IT 기업] 신규 서비스 기획 (팀장급)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 서초구</t>
+          <t>서울 &amp;gt; 금천구</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 16, 'max': 0, 'name': '경력16년↑'}</t>
+          <t>{'code': 2, 'min': 10, 'max': 0, 'name': '경력10년↑'}</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SI·시스템통합,소프트웨어개발,솔루션업체</t>
+          <t>{'code': '0', 'name': '학력무관'}</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>소프트웨어개발</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>프로페셔날핸즈인핸즈코리아(주)</t>
+          <t>중견그룹계열IT사 스마트팩토리IT시스템 리더</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 서초구</t>
+          <t>광주 &amp;gt; 광산구</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 3, 'max': 0, 'name': '경력3년↑'}</t>
+          <t>{'code': 2, 'min': 13, 'max': 0, 'name': '경력13년↑'}</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SI·시스템통합,소프트웨어개발,솔루션업체</t>
+          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ERP</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>(주)나우홈</t>
+          <t>[팩트블록] 언론홍보 담당자(3년 이상)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>경기 &amp;gt; 김포시</t>
+          <t>서울 &amp;gt; 서초구</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+          <t>{'code': 2, 'min': 3, 'max': 0, 'name': '경력3년↑'}</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>B2B,쇼핑몰,전자상거래</t>
+          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>컨텐츠제공</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>(주)젠틀매니악</t>
+          <t>[팩트블록] UIUX디자이너(5년 이상)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 강남구,서울 &amp;gt; 관악구,서울 &amp;gt; 동작구,서울 &amp;gt; 서초구,서울 &amp;gt; 송파구</t>
+          <t>서울 &amp;gt; 서초구</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 3, 'max': 0, 'name': '경력3년↑'}</t>
+          <t>{'code': 2, 'min': 5, 'max': 0, 'name': '경력5년↑'}</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>게임개발</t>
+          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>컨텐츠제공</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>(주)리본컴퍼니</t>
+          <t>생산기획 경력자 채용 - 유명 미디어커머스</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>부산 &amp;gt; 부산진구</t>
+          <t>서울 &amp;gt; 강남구</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+          <t>{'code': 2, 'min': 5, 'max': 0, 'name': '경력5년↑'}</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Phone,텔레콤</t>
+          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>B2C,쇼핑몰,전자상거래</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>(주)리본컴퍼니</t>
+          <t>기업법무 경력자 채용 - 유명 미디어커머스</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>부산 &amp;gt; 부산진구</t>
+          <t>서울 &amp;gt; 강남구</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+          <t>{'code': 2, 'min': 4, 'max': 0, 'name': '경력4년↑'}</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Phone,모바일,텔레콤</t>
+          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>오픈마켓,전자상거래</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>[팩트블록] 프론트엔드 (3년 이상)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 서초구</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'min': 3, 'max': 0, 'name': '경력3년↑'}</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>컨텐츠제공</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>[경산] 관공서 디자인 및 콜센터 상주 인력 모집</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>경북 &amp;gt; 경산시</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'min': 1, 'max': 0, 'name': '경력1년↑'}</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>종합포털</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>[역삼/강남] IT PC 헬프데스크 엔지니어 채용</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 영등포구</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>{'code': '6', 'name': '고등학교졸업이상'}</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NI·네트워크통합,시스템관리</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>대한문고 채용 공고 (온라인채널운영관리)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 강서구</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>{'code': 1, 'min': 0, 'max': 0, 'name': '신입'}</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>{'code': '0', 'name': '학력무관'}</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>B2B,B2C,쇼핑몰,오픈마켓,전자상거래</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>[기계판매] KT 케이원리더스 소매 직영매장 점장 모집</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>충북 &amp;gt; 청주시 상당구,충북 &amp;gt; 청주시 흥덕구,충북 &amp;gt; 청주시 청원구,충북 &amp;gt; 청주시 서원구,세종 &amp;gt; 세종특별자치시</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'min': 1, 'max': 0, 'name': '경력1년↑'}</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>{'code': '0', 'name': '학력무관'}</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>PDA·스마트폰,Phone,모바일,무선통신,텔레콤</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>[AI기반 스마트 솔루션 전문기업] 기술지원 담당 경력직 채용</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 광진구</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'min': 1, 'max': 5, 'name': '경력 1~5년'}</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>소프트웨어개발,솔루션업체</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>방산용  와이어  하네스 품질검사원 모집</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>경기 &amp;gt; 수원시 영통구</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>{'code': 3, 'min': 3, 'max': 15, 'name': '신입/경력'}</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>{'code': '0', 'name': '학력무관'}</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>통신</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>교육 플랫폼 스타트업(시리즈 B) 백엔드 개발 채용(4~10년)</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 강남구</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'min': 4, 'max': 10, 'name': '경력 4~10년'}</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>인터넷교육</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>JY컴퍼니 직영 대리점 정규직 사원 모집</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>충북 &amp;gt; 제천시</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>{'code': '6', 'name': '고등학교졸업이상'}</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>모바일,무선통신,통신</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>JY컴퍼니 공식 대리점 정규직 사원 모집</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>충북 &amp;gt; 제천시</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>{'code': '6', 'name': '고등학교졸업이상'}</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>모바일,무선통신,통신</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>대구 벨톤보청기 명덕센터 온라인 홍보, 영업</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>대구 &amp;gt; 남구</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>{'code': '0', 'name': '학력무관'}</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>종합포털,컨텐츠제공</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>경영기획팀 재무/전략기획 (5년 이상)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 서초구</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'min': 5, 'max': 13, 'name': '경력 5~13년'}</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>SI·시스템통합,소프트웨어개발,시스템관리</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>웹/모바일 UI 디자인</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 마포구</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'min': 3, 'max': 5, 'name': '경력 3~5년'}</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>소프트웨어개발</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>솔루션기술영업 정규직 채용 - 경력, 신입</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 영등포구</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>{'code': 3, 'min': 2, 'max': 10, 'name': '신입/경력'}</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>솔루션업체</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>[쿠팡] 부정거래 대응 담당자</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 송파구</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'min': 3, 'max': 0, 'name': '경력3년↑'}</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>B2B,쇼핑몰,전자상거래</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>[클라우드 서비스 전문기업] 백엔드엔지니어</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 강남구</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'min': 3, 'max': 0, 'name': '경력3년↑'}</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>{'code': '0', 'name': '학력무관'}</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>소프트웨어개발,솔루션업체,시스템관리</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>[제약대기업 계열사 IT솔루션기업] CSV 품질보증</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 강남구</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'min': 3, 'max': 0, 'name': '경력3년↑'}</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>솔루션업체,시스템관리</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>[제약대기업 계열사 IT솔루션기업] 솔루션개발</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 강남구</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'min': 3, 'max': 0, 'name': '경력3년↑'}</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>소프트웨어개발,시스템관리</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>온라인몰 MD/영업관리 채용 (경력무관)</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 구로구</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>B2B</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>구매 업무지원 담당자 채용 (학력/경력 무관)</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 구로구</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>{'code': '0', 'name': '학력무관'}</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>B2B</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>자사 솔루션 백엔드 개발 (5~10년, Java, Spring)</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 마포구</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'min': 5, 'max': 10, 'name': '경력 5~10년'}</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>솔루션업체</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>충주시내 초등학교 컴퓨터 방과후 (코딩) 보조강사 모집합니다.</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>충북 &amp;gt; 충주시</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>웹에이전시</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>개발팀장급 풀스택 모집</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 강북구,서울 &amp;gt; 강서구,서울 &amp;gt; 관악구,서울 &amp;gt; 광진구,서울 &amp;gt; 구로구,경기 &amp;gt; 김포시,경기 &amp;gt; 부천시,경기 &amp;gt; 시흥시</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'min': 5, 'max': 0, 'name': '경력5년↑'}</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>SI·시스템통합,소프트웨어개발,솔루션업체</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>[외국계금융기업] 네트워크 엔지니어 (초급)</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 중구</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'min': 1, 'max': 0, 'name': '경력1년↑'}</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>{'code': '0', 'name': '학력무관'}</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>유지보수,장비구축</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>[강남역][삼성계열사] helpdesk &amp; PC.OA유지보수</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 강남구</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'min': 1, 'max': 0, 'name': '경력1년↑'}</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>{'code': '0', 'name': '학력무관'}</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Phone,네트웍구축,모바일APP,무선통신,인터넷전화</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>[카레나인터랙티브] 웹에이전시 퍼블리셔 채용 (신입/경력)</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 마포구</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>{'code': 3, 'min': 1, 'max': 0, 'name': '신입/경력'}</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>웹에이전시</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>급성장하는 뷰티 브랜드 인사총무팀장 신입/경력 채용</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 강남구</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'min': 7, 'max': 15, 'name': '경력 7~15년'}</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>전자상거래</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>[TDCX Korea] 디지털 광고/마케팅  Pre-sales Specialist</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 용산구</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>CRM</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>[ 글로벌 외환 금융 플랫폼] 경영관리실 회계팀 회계팀장</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 성동구</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'min': 10, 'max': 0, 'name': '경력10년↑'}</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>인터넷금융</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>UBASE부산/카드분야/09시출근(풀타임)/전화상담 -S30</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>부산 &amp;gt; 강서구,부산 &amp;gt; 금정구,부산 &amp;gt; 남구,부산 &amp;gt; 동구,부산 &amp;gt; 연제구</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>{'code': '0', 'name': '학력무관'}</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>네트웍구축</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>SourceUnknown 글로벌 쇼핑몰 온라인MD (경력직)</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 중구</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'min': 3, 'max': 0, 'name': '경력3년↑'}</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>쇼핑몰</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>[SK C&amp;C USA, Inc.] ERP / MES / IT Infra / FDC 분야 채용</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>북·중미 &amp;gt; 미국</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'min': 5, 'max': 0, 'name': '경력5년↑'}</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ERP,IT컨설팅,SAP,SCM,셋업</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>[오타쿠세상을구하다] 게임 UI, 이펙트 디자이너</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 서초구</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>{'code': '0', 'name': '학력무관'}</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>게임</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>[오타쿠세상을구하다] 캐릭터 일러스트</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 서초구</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>{'code': '0', 'name': '학력무관'}</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>게임</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>PC 상품기획 /컴퓨터 리뷰 / 상품스펙 관리</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 영등포구</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>B2B,B2C,가격비교,쇼핑몰,오픈마켓</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>홍보마케팅팀 / 온라인마케팅/ 바이럴마케팅/사업제휴</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 영등포구</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>B2B,B2C,가격비교,쇼핑몰,전자상거래</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ㅣICTㅣ사업기획(영업) (과장/차장급)</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 강남구</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'min': 7, 'max': 0, 'name': '경력7년↑'}</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>보안,보안컨설팅,정보보안</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>ㅣICTㅣSI 영업 (차장/부장급)</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 강남구</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'min': 10, 'max': 0, 'name': '경력10년↑'}</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>보안,보안컨설팅,정보보안</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>긴급 [ICT] 정보보호전문서비스 영업 (팀장/ 실장급)</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 서울전체</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'min': 10, 'max': 0, 'name': '경력10년↑'}</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>소프트웨어개발</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>남성복 의류 관리 및  물류직원 구합니다.</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 성북구</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>{'code': '6', 'name': '고등학교졸업이상'}</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>쇼핑몰,오픈마켓,전자상거래</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>삼성에듀닷컴 온라인교육 운영 / 고객 지원 채용</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 은평구</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>인터넷교육</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>국내 IT 대기업, 글로벌 기업 기술 제휴/투자/계약 담당자 초빙</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>경기 &amp;gt; 성남시 분당구</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'min': 6, 'max': 0, 'name': '경력6년↑'}</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>통신</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>영상디자인&amp;광고마케팅&amp;웹디자인 외 정규직 채용(경력무관)</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>경남 &amp;gt; 양산시</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>{'code': '0', 'name': '학력무관'}</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>모바일APP</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>[IT 기업] 사업전략</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 금천구</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'min': 2, 'max': 0, 'name': '경력2년↑'}</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>{'code': '0', 'name': '학력무관'}</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>전자상거래</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>국내 IT 대기업, 프론트엔드 개발자 초빙</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>경기 &amp;gt; 성남시 분당구</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'min': 6, 'max': 0, 'name': '경력6년↑'}</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>통신</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>국내 IT 대기업, 보안기획 담당자 초빙</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>경기 &amp;gt; 성남시 분당구</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'min': 6, 'max': 0, 'name': '경력6년↑'}</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>통신</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>[채널톡] Sales Coordinator (1년 계약직)</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 강남구</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>{'code': 3, 'min': 1, 'max': 2, 'name': '신입/경력'}</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>{'code': '0', 'name': '학력무관'}</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>솔루션업체</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>정부 R&amp;D 사업비 담당자 2y+</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 서울전체,서울 &amp;gt; 서초구,경기 &amp;gt; 경기전체</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'min': 2, 'max': 8, 'name': '경력 2~8년'}</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>소프트웨어개발</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>국내 IT 대기업, IT 교육 기획/운영 담당자 초빙</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 성동구</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'min': 7, 'max': 0, 'name': '경력7년↑'}</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>통신</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>[경력] 온라인쇼핑몰 - 상품관리 특가기획 마케팅 MD 경력직</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>경기 &amp;gt; 김포시</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>{'code': '0', 'name': '학력무관'}</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>B2B,B2C,쇼핑몰,오픈마켓,전자상거래</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>(주)에프원 유플러스 유성온천(봉명동) 신입/경력 모집</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>대전 &amp;gt; 유성구</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>{'code': '0', 'name': '학력무관'}</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>모바일,통신</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>[AI 세금신고 1위 SSEM] 네이티브 앱 개발자 (안드로이드, iOS)</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 영등포구</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'min': 2, 'max': 20, 'name': '경력 2~20년'}</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>{'code': '0', 'name': '학력무관'}</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>소프트웨어개발</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>헌터코리아 포랩 온라인 MD (과장/팀장급) 모집</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 마포구</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'min': 5, 'max': 10, 'name': '경력 5~10년'}</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>B2B,B2C,쇼핑몰,전자상거래</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>쇼핑몰 AMD 업무 채용합니다. 꼭 한번만 읽어주세요</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>대구 &amp;gt; 수성구</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>쇼핑몰,오픈마켓,전자상거래</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>[인텐더] 인플루언서 마케터 인턴 채용</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 마포구</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>{'code': 1, 'min': 0, 'max': 0, 'name': '신입'}</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>전자상거래</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>[마이 클리닉 매니저] 프로덕트 디자이너</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 강남구</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'min': 3, 'max': 0, 'name': '경력3년↑'}</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>{'code': '0', 'name': '학력무관'}</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>소프트웨어개발</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>[소하임] 상세페이지, 오픈마켓, 웹디자인外 정규직 채용합니다</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>부산 &amp;gt; 사상구</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>{'code': '0', 'name': '학력무관'}</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>쇼핑몰,오픈마켓,전자상거래</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>에듀테크 교육용SW (개발팀) 신입/경력 채용</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>부산 &amp;gt; 강서구,부산 &amp;gt; 사상구,부산 &amp;gt; 사하구,경남 &amp;gt; 김해시,경남 &amp;gt; 창원시</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>소프트웨어개발</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>[뷰티카테고리] 입점몰 MD 채용</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 동대문구</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'min': 1, 'max': 0, 'name': '경력1년↑'}</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>{'code': '0', 'name': '학력무관'}</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>B2C,쇼핑몰,오픈마켓,전자상거래</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>[재택/프리랜서]한국어-독일어,영어,스페인어 번역가 구인</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 강남구</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>{'code': '0', 'name': '학력무관'}</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>컨텐츠제공</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>[동국시스템즈] 총무 담당자 채용(인턴-채용연계형)</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 중구</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>{'code': 1, 'min': 0, 'max': 0, 'name': '신입'}</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>SI·시스템통합,SM,소프트웨어개발,시스템관리</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>라이브러리랩(주) 회계팀 경력직 직원채용</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 서초구</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'min': 1, 'max': 0, 'name': '경력1년↑'}</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>컨텐츠제공</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>[SQA] S/W Test Enginer 모집 (QA)</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 중구</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>{'code': 3, 'min': 3, 'max': 0, 'name': '신입/경력'}</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>모바일,모바일APP,무선통신,안드로이드,텔레콤</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>[NAVER Cloud] 클라우드 솔루션 비즈니스 (체험형 인턴)</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 강남구</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>종합포털</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>[신입/경력] AI Engineer 팀원 채용</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 서초구</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>{'code': 3, 'min': 0, 'max': 5, 'name': '신입/경력'}</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>전자상거래</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Hotel/Resort Operator [육아휴직 대체]</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 강남구</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'min': 1, 'max': 3, 'name': '경력 1~3년'}</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>{'code': '0', 'name': '학력무관'}</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>모바일APP</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>[역삼/서울] 헬프데스크 엔지니어 채용</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 강남구</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>{'code': '6', 'name': '고등학교졸업이상'}</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>네트웍구축,모바일APP,무선통신,와이브로,유비쿼터스</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2024 UX/UI 디자이너 모집</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 양천구</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>{'code': '6', 'name': '고등학교졸업이상'}</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>모바일APP</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>파인원커뮤니케이션즈 경영지원팀 총무 및 인사지원 담당자 채용</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 금천구</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'min': 1, 'max': 3, 'name': '경력 1~3년'}</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>소프트웨어개발</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>SI 프로젝트 사업관리자(PM) 신입/경력 채용</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>경기 &amp;gt; 성남시 수정구</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>{'code': 3, 'min': 3, 'max': 0, 'name': '신입/경력'}</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>SI·시스템통합,소프트웨어개발,솔루션업체</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Video Production (Junior) 모집</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 송파구</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>{'code': '0', 'name': '학력무관'}</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>소프트웨어개발</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>온라인 쇼핑몰 MD 모집</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>부산 &amp;gt; 금정구</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>{'code': '0', 'name': '학력무관'}</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>쇼핑몰</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>검색광고 CX 과장급 채용</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 강남구</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'min': 0, 'max': 0, 'name': '경력'}</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>{'code': '6', 'name': '고등학교졸업이상'}</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>모바일APP</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>[광화문센터] KT 휴대폰 인바운드 상담사 (정규직 채용)</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 노원구,서울 &amp;gt; 동대문구,서울 &amp;gt; 성북구,서울 &amp;gt; 용산구,서울 &amp;gt; 중구,경기 &amp;gt; 고양시,경기 &amp;gt; 김포시,경기 &amp;gt; 남양주시,경기 &amp;gt; 부천시,경기 &amp;gt; 의정부시</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>{'code': '0', 'name': '학력무관'}</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>컨텐츠제공</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>[서울 강남 본사] 이비즈네트웍스 임대지원팀 사무보조 채용</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 서울전체,서울 &amp;gt; 강남구,서울 &amp;gt; 서초구,서울 &amp;gt; 성동구,서울 &amp;gt; 송파구</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>{'code': 3, 'min': 1, 'max': 0, 'name': '신입/경력'}</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>{'code': '0', 'name': '학력무관'}</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>소프트웨어개발</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>재무기획 경력 채용 [웰컴금융그룹]</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 용산구</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'min': 2, 'max': 0, 'name': '경력2년↑'}</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>SI·시스템통합</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>검색광고 CX 정규직 사원 채용</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 강남구</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>{'code': 1, 'min': 0, 'max': 0, 'name': '신입'}</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>{'code': '6', 'name': '고등학교졸업이상'}</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>모바일APP</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>콘텐츠 마케터 영입(주니어급/정규직/강남본사)</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 서초구</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'min': 2, 'max': 0, 'name': '경력2년↑'}</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>IT컨설팅</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>웹 시스템 유지보수 개발자 채용(경력)</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 금천구</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>소프트웨어개발,솔루션업체</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>(주)시즐 2024 상반기 프로젝트 운영(PM) 정규직 모집(경력)</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>인천 &amp;gt; 인천전체,인천 &amp;gt; 미추홀구,인천 &amp;gt; 연수구</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>DataMining,DBMS,NI·네트워크통합,소프트웨어개발,시스템관리</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>[무선전기전자시험기관] 전기안전Test 시험원</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>경기 &amp;gt; 안양시 동안구</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>무선통신,통신</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>광고영업AE 정규직 사원 채용</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 강남구</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>{'code': 1, 'min': 0, 'max': 0, 'name': '신입'}</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>{'code': '6', 'name': '고등학교졸업이상'}</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>모바일APP</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>[구로센터] KT 인터넷 AS 접수 상담사 (정규직 채용)</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 관악구,서울 &amp;gt; 구로구,서울 &amp;gt; 금천구,서울 &amp;gt; 마포구,서울 &amp;gt; 영등포구,경기 &amp;gt; 광명시,경기 &amp;gt; 군포시,경기 &amp;gt; 김포시,경기 &amp;gt; 부천시,경기 &amp;gt; 화성시</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>{'code': '0', 'name': '학력무관'}</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>컨텐츠제공</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>[메타에듀시스] 2024 경력직원 채용공고(통합)/안동</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>경북 &amp;gt; 안동시</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>{'code': 3, 'min': 1, 'max': 0, 'name': '신입/경력'}</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>{'code': '0', 'name': '학력무관'}</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>소프트웨어개발,솔루션업체</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>[원주센터] KT 인터넷 해약 전담 상담사 (정규직 채용)</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>강원 &amp;gt; 원주시,강원 &amp;gt; 횡성군</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>{'code': '0', 'name': '학력무관'}</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>컨텐츠제공</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>광고 마케터 정규직 사원 채용</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 강남구</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>{'code': 3, 'min': 0, 'max': 0, 'name': '신입/경력'}</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>{'code': '6', 'name': '고등학교졸업이상'}</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>모바일APP</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>[ATTO] 자금 담당자 채용</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 서초구</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'min': 3, 'max': 10, 'name': '경력 3~10년'}</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>{'code': '0', 'name': '학력무관'}</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>소프트웨어개발</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>온라인몰 영업관리 및 지원 사원</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 마포구</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>{'code': 1, 'min': 0, 'max': 0, 'name': '신입'}</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>{'code': '6', 'name': '고등학교졸업이상'}</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>B2B,B2C,쇼핑몰,전자상거래</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>[외국계 무선전기전자시험기관] 안전보건환경 HSE 담당</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>경기 &amp;gt; 안양시 동안구</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>무선통신,통신</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>[ESTsecurity]  기업 영업 담당자 (경력)</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 서초구</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'min': 3, 'max': 7, 'name': '경력 3~7년'}</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>{'code': '0', 'name': '학력무관'}</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>소프트웨어개발,솔루션업체</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>[TmaxSoft/관리] 보훈대상자 정규직 특별채용 (인사/비서)</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>경기 &amp;gt; 성남시 분당구</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>소프트웨어개발</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>디지털 마케터 정규직 사원 채용</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 강남구</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>{'code': 3, 'min': 0, 'max': 0, 'name': '신입/경력'}</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>{'code': '6', 'name': '고등학교졸업이상'}</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>모바일APP</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>[ATTO] 시스템 엔지니어 모집</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 서초구</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'min': 4, 'max': 10, 'name': '경력 4~10년'}</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>{'code': '6', 'name': '고등학교졸업이상'}</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>소프트웨어개발</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>[크루(드라이버)모집] 파라다이스시티 전담 업무 수행</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>경기 &amp;gt; 광명시,경기 &amp;gt; 김포시,경기 &amp;gt; 안산시,경기 &amp;gt; 안산시 단원구,경기 &amp;gt; 안산시 상록구,인천 &amp;gt; 미추홀구,인천 &amp;gt; 동구,인천 &amp;gt; 서구,인천 &amp;gt; 연수구,인천 &amp;gt; 중구</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>{'code': '0', 'name': '학력무관'}</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>소프트웨어개발</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>홈페이지 유지보수 경력사원 모집</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>경기 &amp;gt; 수원시 권선구</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'min': 1, 'max': 5, 'name': '경력 1~5년'}</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>SI·시스템통합,시스템관리</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>인터넷 온라인 쇼핑몰 로샵 포장 아르바이트모집 (신입가능)</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>경북 &amp;gt; 경산시</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>{'code': '0', 'name': '학력무관'}</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>쇼핑몰,오픈마켓</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>[이지노이지] 브랜드 생산 디자이너 경력직 채용</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 성북구</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'min': 3, 'max': 0, 'name': '경력3년↑'}</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>{'code': '0', 'name': '학력무관'}</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>전자상거래</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>(유)위드컴퍼니 영업파트 정직원 모집(도매팀)</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>전북 &amp;gt; 군산시,전북 &amp;gt; 익산시,전북 &amp;gt; 전주시 덕진구,전북 &amp;gt; 전주시 완산구</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>{'code': '6', 'name': '고등학교졸업이상'}</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>PDA·스마트폰,모바일,무선통신,통신</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>(유)위드컴퍼니 CS파트 정직원 모집(도매팀)</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>전북 &amp;gt; 군산시,전북 &amp;gt; 익산시,전북 &amp;gt; 전주시 덕진구,전북 &amp;gt; 전주시 완산구</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>{'code': '6', 'name': '고등학교졸업이상'}</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>PDA·스마트폰,모바일,무선통신,통신</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>CS Manager (채팅 상담 전문가) 정규직 채용</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>서울 &amp;gt; 강남구</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'min': 1, 'max': 5, 'name': '경력 1~5년'}</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>{'code': '0', 'name': '학력무관'}</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>소프트웨어개발,솔루션업체</t>
         </is>
       </c>
     </row>

--- a/projects.xlsx
+++ b/projects.xlsx
@@ -463,1681 +463,1681 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>개발자 경력직 채용</t>
+          <t>뛰어난 디자인 감각의 UI/UX 웹디자이너 모십니다.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>부산 &amp;gt; 중구</t>
+          <t>경기 &amp;gt; 성남시 분당구</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 5, 'max': 0, 'name': '경력5년↑'}</t>
+          <t>경력7년↑</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'code': '0', 'name': '학력무관'}</t>
+          <t>학력무관</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>종합포털,컨텐츠제공</t>
+          <t>게임개발,게임기획·마케팅,게임디자인,게임운영</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AI 개발(OCR, Object Detection, NER) - IT 솔루션업체</t>
+          <t>AI 솔루션 서버 개발 - C++</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>대전 &amp;gt; 유성구</t>
+          <t>서울 &amp;gt; 금천구</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 3, 'max': 0, 'name': '경력3년↑'}</t>
+          <t>경력3년↑</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+          <t>학력무관</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>솔루션업체</t>
+          <t>소프트웨어개발,솔루션업체</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>웹 퍼블리셔 프리랜서 모집</t>
+          <t>[프리랜서/재택] 한국어-영어 번역가(주말필수 일일 5시간이상)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>대전 &amp;gt; 서구</t>
+          <t>경기 &amp;gt; 안양시 동안구</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 3, 'max': 10, 'name': '경력 3~10년'}</t>
+          <t>경력무관</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'code': '0', 'name': '학력무관'}</t>
+          <t>학력무관</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>웹에이전시</t>
+          <t>컨텐츠제공</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[IT 기업] Recruiting Manager</t>
+          <t>[프리랜서/재택] 국문캡션 제작자 모집(주말 필수)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 금천구</t>
+          <t>경기 &amp;gt; 안양시 동안구</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 3, 'max': 0, 'name': '경력3년↑'}</t>
+          <t>신입/경력</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'code': '0', 'name': '학력무관'}</t>
+          <t>학력무관</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>전자상거래</t>
+          <t>컨텐츠제공</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[IT 기업] 신규 서비스 기획 (팀장급)</t>
+          <t>매장관리 / 매장 스탭 채용</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 금천구</t>
+          <t>서울 &amp;gt; 중구</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 10, 'max': 0, 'name': '경력10년↑'}</t>
+          <t>경력무관</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'code': '0', 'name': '학력무관'}</t>
+          <t>학력무관</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>소프트웨어개발</t>
+          <t>B2C,가격비교,쇼핑몰,오픈마켓,전자상거래</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>중견그룹계열IT사 스마트팩토리IT시스템 리더</t>
+          <t>네트워크 보안 엔지니어 모집</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>광주 &amp;gt; 광산구</t>
+          <t>경기 &amp;gt; 성남시 수정구</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 13, 'max': 0, 'name': '경력13년↑'}</t>
+          <t>신입</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+          <t>고등학교졸업이상</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ERP</t>
+          <t>네트워크보안,방화벽,보안</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[팩트블록] 언론홍보 담당자(3년 이상)</t>
+          <t>[주식회사 고퀄] 서버(백엔드) 경력자 (3년이상) 신규 채용</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 서초구</t>
+          <t>서울 &amp;gt; 금천구</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 3, 'max': 0, 'name': '경력3년↑'}</t>
+          <t>경력 3~7년</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+          <t>학력무관</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>컨텐츠제공</t>
+          <t>B2B,B2C,쇼핑몰,오픈마켓,전자상거래</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[팩트블록] UIUX디자이너(5년 이상)</t>
+          <t>[주식회사 고퀄] 서버(백엔드) 3년 이하 (주니어급) 채용</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 서초구</t>
+          <t>서울 &amp;gt; 금천구</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 5, 'max': 0, 'name': '경력5년↑'}</t>
+          <t>경력 1~3년</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+          <t>학력무관</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>컨텐츠제공</t>
+          <t>B2B,B2C,쇼핑몰,오픈마켓,전자상거래</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>생산기획 경력자 채용 - 유명 미디어커머스</t>
+          <t>긴급) 업계 최고 대기업 - IT분야 기술기획 (5년 이상) - 최우대</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 강남구</t>
+          <t>서울 &amp;gt; 서울전체,서울 &amp;gt; 강남구,서울 &amp;gt; 동작구,서울 &amp;gt; 용산구,서울 &amp;gt; 종로구</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 5, 'max': 0, 'name': '경력5년↑'}</t>
+          <t>경력5년↑</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+          <t>대학교졸업(4년)이상</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>B2C,쇼핑몰,전자상거래</t>
+          <t>B2C,쇼핑몰,오픈마켓,전자상거래</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>기업법무 경력자 채용 - 유명 미디어커머스</t>
+          <t>긴급) IT분야 기술기획 (5년 이상) - 업계 최고 대기업 - 최우대</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 강남구</t>
+          <t>서울 &amp;gt; 서울전체,서울 &amp;gt; 강남구,서울 &amp;gt; 동작구,서울 &amp;gt; 용산구,서울 &amp;gt; 종로구</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 4, 'max': 0, 'name': '경력4년↑'}</t>
+          <t>경력5년↑</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+          <t>대학교졸업(4년)이상</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>오픈마켓,전자상거래</t>
+          <t>B2C,쇼핑몰,오픈마켓,전자상거래</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[팩트블록] 프론트엔드 (3년 이상)</t>
+          <t>긴급) 업계 최고 대기업 - 커머스 플랫폼 Back-end 개발</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 서초구</t>
+          <t>서울 &amp;gt; 강남구</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 3, 'max': 0, 'name': '경력3년↑'}</t>
+          <t>경력5년↑</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+          <t>대학교졸업(4년)이상</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>컨텐츠제공</t>
+          <t>B2C,쇼핑몰,오픈마켓,전자상거래</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[경산] 관공서 디자인 및 콜센터 상주 인력 모집</t>
+          <t>긴급) B2C 플랫폼 기술PM - 업계 최고 대기업 - 최우대</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>경북 &amp;gt; 경산시</t>
+          <t>서울 &amp;gt; 서울전체,서울 &amp;gt; 강남구</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 1, 'max': 0, 'name': '경력1년↑'}</t>
+          <t>경력3년↑</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+          <t>대학교졸업(4년)이상</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>종합포털</t>
+          <t>B2C,쇼핑몰,오픈마켓,전자상거래</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[역삼/강남] IT PC 헬프데스크 엔지니어 채용</t>
+          <t>긴급) 업계 최고 대기업 - B2C 플랫폼 기술PM - 최우대</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 영등포구</t>
+          <t>서울 &amp;gt; 서울전체,서울 &amp;gt; 강남구</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+          <t>경력3년↑</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>{'code': '6', 'name': '고등학교졸업이상'}</t>
+          <t>대학교졸업(4년)이상</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>NI·네트워크통합,시스템관리</t>
+          <t>B2C,쇼핑몰,오픈마켓,전자상거래</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>대한문고 채용 공고 (온라인채널운영관리)</t>
+          <t>긴급) 글로벌 AI기업 - Software Engineering Manager - 최우대</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 강서구</t>
+          <t>서울 &amp;gt; 서울전체,서울 &amp;gt; 강남구</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>{'code': 1, 'min': 0, 'max': 0, 'name': '신입'}</t>
+          <t>경력15년↑</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>{'code': '0', 'name': '학력무관'}</t>
+          <t>대학교졸업(4년)이상</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>B2B,B2C,쇼핑몰,오픈마켓,전자상거래</t>
+          <t>DataMining,DW,소프트웨어개발,솔루션업체</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[기계판매] KT 케이원리더스 소매 직영매장 점장 모집</t>
+          <t>긴급) Software Engineering Manager - 글로벌 AI기업 - 최우대</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>충북 &amp;gt; 청주시 상당구,충북 &amp;gt; 청주시 흥덕구,충북 &amp;gt; 청주시 청원구,충북 &amp;gt; 청주시 서원구,세종 &amp;gt; 세종특별자치시</t>
+          <t>서울 &amp;gt; 서울전체,서울 &amp;gt; 강남구</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 1, 'max': 0, 'name': '경력1년↑'}</t>
+          <t>경력15년↑</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>{'code': '0', 'name': '학력무관'}</t>
+          <t>대학교졸업(4년)이상</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>PDA·스마트폰,Phone,모바일,무선통신,텔레콤</t>
+          <t>DataMining,DW,소프트웨어개발,솔루션업체</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[AI기반 스마트 솔루션 전문기업] 기술지원 담당 경력직 채용</t>
+          <t>긴급) 업계 최고 대기업 - Data Engineer - 최우대</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 광진구</t>
+          <t>서울 &amp;gt; 서울전체,서울 &amp;gt; 강남구,서울 &amp;gt; 동작구,서울 &amp;gt; 서대문구,서울 &amp;gt; 용산구</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 1, 'max': 5, 'name': '경력 1~5년'}</t>
+          <t>경력3년↑</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+          <t>대학교졸업(4년)이상</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>소프트웨어개발,솔루션업체</t>
+          <t>B2C,쇼핑몰,오픈마켓,전자상거래</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>방산용  와이어  하네스 품질검사원 모집</t>
+          <t>긴급) Data Engineer - 업계 최고 대기업 - 최우대</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>경기 &amp;gt; 수원시 영통구</t>
+          <t>서울 &amp;gt; 서울전체,서울 &amp;gt; 강남구,서울 &amp;gt; 동작구,서울 &amp;gt; 서대문구,서울 &amp;gt; 용산구</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>{'code': 3, 'min': 3, 'max': 15, 'name': '신입/경력'}</t>
+          <t>경력3년↑</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{'code': '0', 'name': '학력무관'}</t>
+          <t>대학교졸업(4년)이상</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>통신</t>
+          <t>B2C,쇼핑몰,오픈마켓,전자상거래</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>교육 플랫폼 스타트업(시리즈 B) 백엔드 개발 채용(4~10년)</t>
+          <t>긴급) 글로벌 AI 기업 - Senior Data Engineer - 최우대</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 강남구</t>
+          <t>서울 &amp;gt; 서울전체,서울 &amp;gt; 강남구,서울 &amp;gt; 동작구,서울 &amp;gt; 서대문구,서울 &amp;gt; 용산구</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 4, 'max': 10, 'name': '경력 4~10년'}</t>
+          <t>경력8년↑</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+          <t>대학교졸업(4년)이상</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>인터넷교육</t>
+          <t>DataMining,DW,소프트웨어개발,솔루션업체</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>JY컴퍼니 직영 대리점 정규직 사원 모집</t>
+          <t>긴급) Senior Data Engineer - 글로벌 AI 기업 - 최우대</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>충북 &amp;gt; 제천시</t>
+          <t>서울 &amp;gt; 서울전체,서울 &amp;gt; 강남구,서울 &amp;gt; 동작구,서울 &amp;gt; 서대문구,서울 &amp;gt; 용산구</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+          <t>경력8년↑</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{'code': '6', 'name': '고등학교졸업이상'}</t>
+          <t>대학교졸업(4년)이상</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>모바일,무선통신,통신</t>
+          <t>DataMining,DW,소프트웨어개발,솔루션업체</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>JY컴퍼니 공식 대리점 정규직 사원 모집</t>
+          <t>긴급) 글로벌 AI 기업 - Senior Backend Software Engineer</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>충북 &amp;gt; 제천시</t>
+          <t>서울 &amp;gt; 강남구</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+          <t>경력8년↑</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>{'code': '6', 'name': '고등학교졸업이상'}</t>
+          <t>대학교졸업(4년)이상</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>모바일,무선통신,통신</t>
+          <t>DataMining,DW,소프트웨어개발,솔루션업체</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>대구 벨톤보청기 명덕센터 온라인 홍보, 영업</t>
+          <t>긴급) Senior Frontend Software Engineer - 글로벌 AI기업</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>대구 &amp;gt; 남구</t>
+          <t>서울 &amp;gt; 서울전체,서울 &amp;gt; 강남구</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+          <t>경력8년↑</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>{'code': '0', 'name': '학력무관'}</t>
+          <t>대학교졸업(4년)이상</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>종합포털,컨텐츠제공</t>
+          <t>DataMining,DW,소프트웨어개발,솔루션업체</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>경영기획팀 재무/전략기획 (5년 이상)</t>
+          <t>긴급) 글로벌 AI기업 - Senior Frontend Software Engineer</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 서초구</t>
+          <t>서울 &amp;gt; 서울전체,서울 &amp;gt; 강남구</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 5, 'max': 13, 'name': '경력 5~13년'}</t>
+          <t>경력8년↑</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+          <t>대학교졸업(4년)이상</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SI·시스템통합,소프트웨어개발,시스템관리</t>
+          <t>DataMining,DW,소프트웨어개발,솔루션업체</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>웹/모바일 UI 디자인</t>
+          <t>긴급) 글로벌 AI기업 - Senior Technical Program Manager</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 마포구</t>
+          <t>서울 &amp;gt; 서울전체,서울 &amp;gt; 강남구</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 3, 'max': 5, 'name': '경력 3~5년'}</t>
+          <t>경력5년↑</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+          <t>대학교졸업(4년)이상</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>소프트웨어개발</t>
+          <t>SI·시스템통합</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>솔루션기술영업 정규직 채용 - 경력, 신입</t>
+          <t>긴급) Senior Technical Program Manager - 글로벌 AI기업</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 영등포구</t>
+          <t>서울 &amp;gt; 서울전체,서울 &amp;gt; 강남구</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>{'code': 3, 'min': 2, 'max': 10, 'name': '신입/경력'}</t>
+          <t>경력5년↑</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+          <t>대학교졸업(4년)이상</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>솔루션업체</t>
+          <t>SI·시스템통합</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>[쿠팡] 부정거래 대응 담당자</t>
+          <t>(부산)컴퓨터 AS / 복합기 네트워크 유지보수  엔지니어 모집</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 송파구</t>
+          <t>부산 &amp;gt; 사상구</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 3, 'max': 0, 'name': '경력3년↑'}</t>
+          <t>경력1년↑</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+          <t>학력무관</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>B2B,쇼핑몰,전자상거래</t>
+          <t>유지보수,장비구축,하드웨어</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>[클라우드 서비스 전문기업] 백엔드엔지니어</t>
+          <t>긴급) 업계 최고 대기업 - 어플리케이션 보안성 검토 - 최우대</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 강남구</t>
+          <t>서울 &amp;gt; 서울전체,서울 &amp;gt; 강남구</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 3, 'max': 0, 'name': '경력3년↑'}</t>
+          <t>경력5년↑</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>{'code': '0', 'name': '학력무관'}</t>
+          <t>대학교졸업(4년)이상</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>소프트웨어개발,솔루션업체,시스템관리</t>
+          <t>B2C,쇼핑몰,오픈마켓,전자상거래</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>[제약대기업 계열사 IT솔루션기업] CSV 품질보증</t>
+          <t>긴급) 어플리케이션 보안성 검토 - 업계 최고 대기업 - 최우대</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 강남구</t>
+          <t>서울 &amp;gt; 서울전체,서울 &amp;gt; 강남구</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 3, 'max': 0, 'name': '경력3년↑'}</t>
+          <t>경력5년↑</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+          <t>대학교졸업(4년)이상</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>솔루션업체,시스템관리</t>
+          <t>B2C,쇼핑몰,오픈마켓,전자상거래</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>[제약대기업 계열사 IT솔루션기업] 솔루션개발</t>
+          <t>긴급) Application Security - 업계 최고 대기업 - 최우대</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 강남구</t>
+          <t>서울 &amp;gt; 서울전체,서울 &amp;gt; 강남구,서울 &amp;gt; 동작구,서울 &amp;gt; 서초구,서울 &amp;gt; 용산구</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 3, 'max': 0, 'name': '경력3년↑'}</t>
+          <t>경력5년↑</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+          <t>대학교졸업(4년)이상</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>소프트웨어개발,시스템관리</t>
+          <t>B2C,쇼핑몰,오픈마켓,전자상거래</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>온라인몰 MD/영업관리 채용 (경력무관)</t>
+          <t>긴급) 업계 최고 대기업 - Application Security - 최우대</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 구로구</t>
+          <t>서울 &amp;gt; 서울전체,서울 &amp;gt; 강남구,서울 &amp;gt; 동작구,서울 &amp;gt; 서초구,서울 &amp;gt; 용산구</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+          <t>경력5년↑</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+          <t>대학교졸업(4년)이상</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B2C,쇼핑몰,오픈마켓,전자상거래</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>구매 업무지원 담당자 채용 (학력/경력 무관)</t>
+          <t>웹하드 사이트 운영 관리 및 컨텐츠 관리</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 구로구</t>
+          <t>경기 &amp;gt; 부천시,경기 &amp;gt; 부천시 소사구,경기 &amp;gt; 부천시 오정구,경기 &amp;gt; 부천시 원미구,인천 &amp;gt; 인천전체,인천 &amp;gt; 계양구,인천 &amp;gt; 미추홀구,인천 &amp;gt; 부평구,인천 &amp;gt; 서구</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+          <t>경력무관</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>{'code': '0', 'name': '학력무관'}</t>
+          <t>학력무관</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>인터넷만화,인터넷방송,인터넷영화,커뮤니티,컨텐츠제공</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>자사 솔루션 백엔드 개발 (5~10년, Java, Spring)</t>
+          <t>인공지능 알고리즘 개발. 소프트웨어 개발 신입/경력 채용</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 마포구</t>
+          <t>전남 &amp;gt; 순천시</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 5, 'max': 10, 'name': '경력 5~10년'}</t>
+          <t>신입/경력</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+          <t>대학교졸업(4년)이상</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>솔루션업체</t>
+          <t>DBMS,SI·시스템통합,소프트웨어개발,솔루션업체</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>충주시내 초등학교 컴퓨터 방과후 (코딩) 보조강사 모집합니다.</t>
+          <t>[프리랜서] 보험사 React F/E 개발자 모집  (초급)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>충북 &amp;gt; 충주시</t>
+          <t>서울 &amp;gt; 영등포구</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+          <t>경력1년↑</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+          <t>학력무관</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>웹에이전시</t>
+          <t>모바일,안드로이드</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>개발팀장급 풀스택 모집</t>
+          <t>(주)모멘티 프론트엔드 개발자 채용 [강남구]</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 강북구,서울 &amp;gt; 강서구,서울 &amp;gt; 관악구,서울 &amp;gt; 광진구,서울 &amp;gt; 구로구,경기 &amp;gt; 김포시,경기 &amp;gt; 부천시,경기 &amp;gt; 시흥시</t>
+          <t>서울 &amp;gt; 강남구</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 5, 'max': 0, 'name': '경력5년↑'}</t>
+          <t>신입/경력</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+          <t>대학졸업(2,3년)이상</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SI·시스템통합,소프트웨어개발,솔루션업체</t>
+          <t>웹에이전시</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>[외국계금융기업] 네트워크 엔지니어 (초급)</t>
+          <t>(주)모멘티 프론트엔드 개발자 채용 [강남구/팀장급]</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 중구</t>
+          <t>서울 &amp;gt; 강남구</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 1, 'max': 0, 'name': '경력1년↑'}</t>
+          <t>경력 5~10년</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>{'code': '0', 'name': '학력무관'}</t>
+          <t>대학졸업(2,3년)이상</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>유지보수,장비구축</t>
+          <t>웹에이전시</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>[강남역][삼성계열사] helpdesk &amp; PC.OA유지보수</t>
+          <t>[보이는ARS콜게이트] UXUI디자인 경력</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 강남구</t>
+          <t>서울 &amp;gt; 서초구</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 1, 'max': 0, 'name': '경력1년↑'}</t>
+          <t>경력3년↑</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>{'code': '0', 'name': '학력무관'}</t>
+          <t>대학졸업(2,3년)이상</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Phone,네트웍구축,모바일APP,무선통신,인터넷전화</t>
+          <t>소프트웨어개발,솔루션업체</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>[카레나인터랙티브] 웹에이전시 퍼블리셔 채용 (신입/경력)</t>
+          <t>[보이는ARS 콜게이트]Back End 개발</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 마포구</t>
+          <t>서울 &amp;gt; 서초구</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>{'code': 3, 'min': 1, 'max': 0, 'name': '신입/경력'}</t>
+          <t>경력무관</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+          <t>대학교졸업(4년)이상</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>웹에이전시</t>
+          <t>소프트웨어개발,솔루션업체</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>급성장하는 뷰티 브랜드 인사총무팀장 신입/경력 채용</t>
+          <t>인프라 플랫폼 웹개발자 채용 (Laravel,Python,VueJs,MongoDB)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 강남구</t>
+          <t>서울 &amp;gt; 영등포구</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 7, 'max': 15, 'name': '경력 7~15년'}</t>
+          <t>경력무관</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+          <t>고등학교졸업이상</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>전자상거래</t>
+          <t>소프트웨어개발,솔루션업체</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>[TDCX Korea] 디지털 광고/마케팅  Pre-sales Specialist</t>
+          <t>[보이는ARS 콜게이트] 영업 지원 경력</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 용산구</t>
+          <t>서울 &amp;gt; 서초구</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+          <t>경력3년↑</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+          <t>대학졸업(2,3년)이상</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>CRM</t>
+          <t>소프트웨어개발,솔루션업체</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>[ 글로벌 외환 금융 플랫폼] 경영관리실 회계팀 회계팀장</t>
+          <t>[영국계회사]  경력 FAE 엔지니어 모집</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 성동구</t>
+          <t>서울 &amp;gt; 강서구</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 10, 'max': 0, 'name': '경력10년↑'}</t>
+          <t>경력 3~10년</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+          <t>대학교졸업(4년)이상</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>인터넷금융</t>
+          <t>모바일APP,무선통신,블루투스,텔레매틱스</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>UBASE부산/카드분야/09시출근(풀타임)/전화상담 -S30</t>
+          <t>주 에즈) 경력직 온라인 MD 정규직 사원모집</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>부산 &amp;gt; 강서구,부산 &amp;gt; 금정구,부산 &amp;gt; 남구,부산 &amp;gt; 동구,부산 &amp;gt; 연제구</t>
+          <t>부산 &amp;gt; 부산진구</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+          <t>경력 2~3년</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>{'code': '0', 'name': '학력무관'}</t>
+          <t>학력무관</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>네트웍구축</t>
+          <t>쇼핑몰,오픈마켓</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SourceUnknown 글로벌 쇼핑몰 온라인MD (경력직)</t>
+          <t>개발자 경력직 채용</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 중구</t>
+          <t>부산 &amp;gt; 중구</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 3, 'max': 0, 'name': '경력3년↑'}</t>
+          <t>경력5년↑</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+          <t>학력무관</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>쇼핑몰</t>
+          <t>종합포털,컨텐츠제공</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>[SK C&amp;C USA, Inc.] ERP / MES / IT Infra / FDC 분야 채용</t>
+          <t>AI 개발(OCR, Object Detection, NER) - IT 솔루션업체</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>북·중미 &amp;gt; 미국</t>
+          <t>대전 &amp;gt; 유성구</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 5, 'max': 0, 'name': '경력5년↑'}</t>
+          <t>경력3년↑</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+          <t>대학교졸업(4년)이상</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ERP,IT컨설팅,SAP,SCM,셋업</t>
+          <t>솔루션업체</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>[오타쿠세상을구하다] 게임 UI, 이펙트 디자이너</t>
+          <t>웹 퍼블리셔 프리랜서 모집</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 서초구</t>
+          <t>대전 &amp;gt; 서구</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+          <t>경력 3~10년</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>{'code': '0', 'name': '학력무관'}</t>
+          <t>학력무관</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>게임</t>
+          <t>웹에이전시</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>[오타쿠세상을구하다] 캐릭터 일러스트</t>
+          <t>[IT 기업] Recruiting Manager</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 서초구</t>
+          <t>서울 &amp;gt; 금천구</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+          <t>경력3년↑</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>{'code': '0', 'name': '학력무관'}</t>
+          <t>학력무관</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>게임</t>
+          <t>전자상거래</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PC 상품기획 /컴퓨터 리뷰 / 상품스펙 관리</t>
+          <t>[IT 기업] 신규 서비스 기획 (팀장급)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 영등포구</t>
+          <t>서울 &amp;gt; 금천구</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+          <t>경력10년↑</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+          <t>학력무관</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>B2B,B2C,가격비교,쇼핑몰,오픈마켓</t>
+          <t>소프트웨어개발</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>홍보마케팅팀 / 온라인마케팅/ 바이럴마케팅/사업제휴</t>
+          <t>중견그룹계열IT사 스마트팩토리IT시스템 리더</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 영등포구</t>
+          <t>광주 &amp;gt; 광산구</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+          <t>경력13년↑</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+          <t>대학교졸업(4년)이상</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>B2B,B2C,가격비교,쇼핑몰,전자상거래</t>
+          <t>ERP</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ㅣICTㅣ사업기획(영업) (과장/차장급)</t>
+          <t>[팩트블록] 언론홍보 담당자(3년 이상)</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 강남구</t>
+          <t>서울 &amp;gt; 서초구</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 7, 'max': 0, 'name': '경력7년↑'}</t>
+          <t>경력3년↑</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+          <t>대학교졸업(4년)이상</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>보안,보안컨설팅,정보보안</t>
+          <t>컨텐츠제공</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ㅣICTㅣSI 영업 (차장/부장급)</t>
+          <t>[팩트블록] UIUX디자이너(5년 이상)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 강남구</t>
+          <t>서울 &amp;gt; 서초구</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 10, 'max': 0, 'name': '경력10년↑'}</t>
+          <t>경력5년↑</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+          <t>대학교졸업(4년)이상</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>보안,보안컨설팅,정보보안</t>
+          <t>컨텐츠제공</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>긴급 [ICT] 정보보호전문서비스 영업 (팀장/ 실장급)</t>
+          <t>생산기획 경력자 채용 - 유명 미디어커머스</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 서울전체</t>
+          <t>서울 &amp;gt; 강남구</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 10, 'max': 0, 'name': '경력10년↑'}</t>
+          <t>경력5년↑</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+          <t>대학교졸업(4년)이상</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>소프트웨어개발</t>
+          <t>B2C,쇼핑몰,전자상거래</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>남성복 의류 관리 및  물류직원 구합니다.</t>
+          <t>기업법무 경력자 채용 - 유명 미디어커머스</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 성북구</t>
+          <t>서울 &amp;gt; 강남구</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+          <t>경력4년↑</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>{'code': '6', 'name': '고등학교졸업이상'}</t>
+          <t>대학교졸업(4년)이상</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>쇼핑몰,오픈마켓,전자상거래</t>
+          <t>오픈마켓,전자상거래</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>삼성에듀닷컴 온라인교육 운영 / 고객 지원 채용</t>
+          <t>[팩트블록] 프론트엔드 (3년 이상)</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 은평구</t>
+          <t>서울 &amp;gt; 서초구</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+          <t>경력3년↑</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+          <t>대학교졸업(4년)이상</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>인터넷교육</t>
+          <t>컨텐츠제공</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>국내 IT 대기업, 글로벌 기업 기술 제휴/투자/계약 담당자 초빙</t>
+          <t>[경산] 관공서 디자인 및 콜센터 상주 인력 모집</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>경기 &amp;gt; 성남시 분당구</t>
+          <t>경북 &amp;gt; 경산시</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 6, 'max': 0, 'name': '경력6년↑'}</t>
+          <t>경력1년↑</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+          <t>대학졸업(2,3년)이상</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>통신</t>
+          <t>종합포털</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>영상디자인&amp;광고마케팅&amp;웹디자인 외 정규직 채용(경력무관)</t>
+          <t>[역삼/강남] IT PC 헬프데스크 엔지니어 채용</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>경남 &amp;gt; 양산시</t>
+          <t>서울 &amp;gt; 영등포구</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+          <t>경력무관</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>{'code': '0', 'name': '학력무관'}</t>
+          <t>고등학교졸업이상</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>모바일APP</t>
+          <t>NI·네트워크통합,시스템관리</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>[IT 기업] 사업전략</t>
+          <t>대한문고 채용 공고 (온라인채널운영관리)</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 금천구</t>
+          <t>서울 &amp;gt; 강서구</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 2, 'max': 0, 'name': '경력2년↑'}</t>
+          <t>신입</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>{'code': '0', 'name': '학력무관'}</t>
+          <t>학력무관</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>전자상거래</t>
+          <t>B2B,B2C,쇼핑몰,오픈마켓,전자상거래</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>국내 IT 대기업, 프론트엔드 개발자 초빙</t>
+          <t>[기계판매] KT 케이원리더스 소매 직영매장 점장 모집</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>경기 &amp;gt; 성남시 분당구</t>
+          <t>충북 &amp;gt; 청주시 상당구,충북 &amp;gt; 청주시 흥덕구,충북 &amp;gt; 청주시 청원구,충북 &amp;gt; 청주시 서원구,세종 &amp;gt; 세종특별자치시</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 6, 'max': 0, 'name': '경력6년↑'}</t>
+          <t>경력1년↑</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+          <t>학력무관</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>통신</t>
+          <t>PDA·스마트폰,Phone,모바일,무선통신,텔레콤</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>국내 IT 대기업, 보안기획 담당자 초빙</t>
+          <t>[AI기반 스마트 솔루션 전문기업] 기술지원 담당 경력직 채용</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>경기 &amp;gt; 성남시 분당구</t>
+          <t>서울 &amp;gt; 광진구</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 6, 'max': 0, 'name': '경력6년↑'}</t>
+          <t>경력 1~5년</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+          <t>대학교졸업(4년)이상</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>통신</t>
+          <t>소프트웨어개발,솔루션업체</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>[채널톡] Sales Coordinator (1년 계약직)</t>
+          <t>방산용  와이어  하네스 품질검사원 모집</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 강남구</t>
+          <t>경기 &amp;gt; 수원시 영통구</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>{'code': 3, 'min': 1, 'max': 2, 'name': '신입/경력'}</t>
+          <t>신입/경력</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>{'code': '0', 'name': '학력무관'}</t>
+          <t>학력무관</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>솔루션업체</t>
+          <t>통신</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>정부 R&amp;D 사업비 담당자 2y+</t>
+          <t>교육 플랫폼 스타트업(시리즈 B) 백엔드 개발 채용(4~10년)</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 서울전체,서울 &amp;gt; 서초구,경기 &amp;gt; 경기전체</t>
+          <t>서울 &amp;gt; 강남구</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 2, 'max': 8, 'name': '경력 2~8년'}</t>
+          <t>경력 4~10년</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+          <t>대학졸업(2,3년)이상</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>소프트웨어개발</t>
+          <t>인터넷교육</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>국내 IT 대기업, IT 교육 기획/운영 담당자 초빙</t>
+          <t>JY컴퍼니 직영 대리점 정규직 사원 모집</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 성동구</t>
+          <t>충북 &amp;gt; 제천시</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 7, 'max': 0, 'name': '경력7년↑'}</t>
+          <t>경력무관</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+          <t>고등학교졸업이상</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>통신</t>
+          <t>모바일,무선통신,통신</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>[경력] 온라인쇼핑몰 - 상품관리 특가기획 마케팅 MD 경력직</t>
+          <t>JY컴퍼니 공식 대리점 정규직 사원 모집</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>경기 &amp;gt; 김포시</t>
+          <t>충북 &amp;gt; 제천시</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+          <t>경력무관</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>{'code': '0', 'name': '학력무관'}</t>
+          <t>고등학교졸업이상</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>B2B,B2C,쇼핑몰,오픈마켓,전자상거래</t>
+          <t>모바일,무선통신,통신</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>(주)에프원 유플러스 유성온천(봉명동) 신입/경력 모집</t>
+          <t>대구 벨톤보청기 명덕센터 온라인 홍보, 영업</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>대전 &amp;gt; 유성구</t>
+          <t>대구 &amp;gt; 남구</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+          <t>경력무관</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>{'code': '0', 'name': '학력무관'}</t>
+          <t>학력무관</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>모바일,통신</t>
+          <t>종합포털,컨텐츠제공</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>[AI 세금신고 1위 SSEM] 네이티브 앱 개발자 (안드로이드, iOS)</t>
+          <t>경영기획팀 재무/전략기획 (5년 이상)</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 영등포구</t>
+          <t>서울 &amp;gt; 서초구</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 2, 'max': 20, 'name': '경력 2~20년'}</t>
+          <t>경력 5~13년</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>{'code': '0', 'name': '학력무관'}</t>
+          <t>대학교졸업(4년)이상</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>소프트웨어개발</t>
+          <t>SI·시스템통합,소프트웨어개발,시스템관리</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>헌터코리아 포랩 온라인 MD (과장/팀장급) 모집</t>
+          <t>웹/모바일 UI 디자인</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2147,78 +2147,78 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 5, 'max': 10, 'name': '경력 5~10년'}</t>
+          <t>경력 3~5년</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+          <t>대학교졸업(4년)이상</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>B2B,B2C,쇼핑몰,전자상거래</t>
+          <t>소프트웨어개발</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>쇼핑몰 AMD 업무 채용합니다. 꼭 한번만 읽어주세요</t>
+          <t>솔루션기술영업 정규직 채용 - 경력, 신입</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>대구 &amp;gt; 수성구</t>
+          <t>서울 &amp;gt; 영등포구</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+          <t>신입/경력</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+          <t>대학졸업(2,3년)이상</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>쇼핑몰,오픈마켓,전자상거래</t>
+          <t>솔루션업체</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>[인텐더] 인플루언서 마케터 인턴 채용</t>
+          <t>[쿠팡] 부정거래 대응 담당자</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 마포구</t>
+          <t>서울 &amp;gt; 송파구</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>{'code': 1, 'min': 0, 'max': 0, 'name': '신입'}</t>
+          <t>경력3년↑</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+          <t>대학교졸업(4년)이상</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>전자상거래</t>
+          <t>B2B,쇼핑몰,전자상거래</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>[마이 클리닉 매니저] 프로덕트 디자이너</t>
+          <t>[클라우드 서비스 전문기업] 백엔드엔지니어</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2228,294 +2228,294 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 3, 'max': 0, 'name': '경력3년↑'}</t>
+          <t>경력3년↑</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>{'code': '0', 'name': '학력무관'}</t>
+          <t>학력무관</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>소프트웨어개발</t>
+          <t>소프트웨어개발,솔루션업체,시스템관리</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>[소하임] 상세페이지, 오픈마켓, 웹디자인外 정규직 채용합니다</t>
+          <t>[제약대기업 계열사 IT솔루션기업] CSV 품질보증</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>부산 &amp;gt; 사상구</t>
+          <t>서울 &amp;gt; 강남구</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+          <t>경력3년↑</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>{'code': '0', 'name': '학력무관'}</t>
+          <t>대학졸업(2,3년)이상</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>쇼핑몰,오픈마켓,전자상거래</t>
+          <t>솔루션업체,시스템관리</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>에듀테크 교육용SW (개발팀) 신입/경력 채용</t>
+          <t>[제약대기업 계열사 IT솔루션기업] 솔루션개발</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>부산 &amp;gt; 강서구,부산 &amp;gt; 사상구,부산 &amp;gt; 사하구,경남 &amp;gt; 김해시,경남 &amp;gt; 창원시</t>
+          <t>서울 &amp;gt; 강남구</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+          <t>경력3년↑</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+          <t>대학졸업(2,3년)이상</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>소프트웨어개발</t>
+          <t>소프트웨어개발,시스템관리</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>[뷰티카테고리] 입점몰 MD 채용</t>
+          <t>온라인몰 MD/영업관리 채용 (경력무관)</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 동대문구</t>
+          <t>서울 &amp;gt; 구로구</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 1, 'max': 0, 'name': '경력1년↑'}</t>
+          <t>경력무관</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>{'code': '0', 'name': '학력무관'}</t>
+          <t>대학졸업(2,3년)이상</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>B2C,쇼핑몰,오픈마켓,전자상거래</t>
+          <t>B2B</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>[재택/프리랜서]한국어-독일어,영어,스페인어 번역가 구인</t>
+          <t>구매 업무지원 담당자 채용 (학력/경력 무관)</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 강남구</t>
+          <t>서울 &amp;gt; 구로구</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+          <t>경력무관</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>{'code': '0', 'name': '학력무관'}</t>
+          <t>학력무관</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>컨텐츠제공</t>
+          <t>B2B</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>[동국시스템즈] 총무 담당자 채용(인턴-채용연계형)</t>
+          <t>자사 솔루션 백엔드 개발 (5~10년, Java, Spring)</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 중구</t>
+          <t>서울 &amp;gt; 마포구</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>{'code': 1, 'min': 0, 'max': 0, 'name': '신입'}</t>
+          <t>경력 5~10년</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+          <t>대학교졸업(4년)이상</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>SI·시스템통합,SM,소프트웨어개발,시스템관리</t>
+          <t>솔루션업체</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>라이브러리랩(주) 회계팀 경력직 직원채용</t>
+          <t>충주시내 초등학교 컴퓨터 방과후 (코딩) 보조강사 모집합니다.</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 서초구</t>
+          <t>충북 &amp;gt; 충주시</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 1, 'max': 0, 'name': '경력1년↑'}</t>
+          <t>경력무관</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+          <t>대학졸업(2,3년)이상</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>컨텐츠제공</t>
+          <t>웹에이전시</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>[SQA] S/W Test Enginer 모집 (QA)</t>
+          <t>개발팀장급 풀스택 모집</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 중구</t>
+          <t>서울 &amp;gt; 강북구,서울 &amp;gt; 강서구,서울 &amp;gt; 관악구,서울 &amp;gt; 광진구,서울 &amp;gt; 구로구,경기 &amp;gt; 김포시,경기 &amp;gt; 부천시,경기 &amp;gt; 시흥시</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>{'code': 3, 'min': 3, 'max': 0, 'name': '신입/경력'}</t>
+          <t>경력5년↑</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+          <t>대학교졸업(4년)이상</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>모바일,모바일APP,무선통신,안드로이드,텔레콤</t>
+          <t>SI·시스템통합,소프트웨어개발,솔루션업체</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>[NAVER Cloud] 클라우드 솔루션 비즈니스 (체험형 인턴)</t>
+          <t>[외국계금융기업] 네트워크 엔지니어 (초급)</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 강남구</t>
+          <t>서울 &amp;gt; 중구</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+          <t>경력1년↑</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+          <t>학력무관</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>종합포털</t>
+          <t>유지보수,장비구축</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>[신입/경력] AI Engineer 팀원 채용</t>
+          <t>[강남역][삼성계열사] helpdesk &amp; PC.OA유지보수</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 서초구</t>
+          <t>서울 &amp;gt; 강남구</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>{'code': 3, 'min': 0, 'max': 5, 'name': '신입/경력'}</t>
+          <t>경력1년↑</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+          <t>학력무관</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>전자상거래</t>
+          <t>Phone,네트웍구축,모바일APP,무선통신,인터넷전화</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Hotel/Resort Operator [육아휴직 대체]</t>
+          <t>[카레나인터랙티브] 웹에이전시 퍼블리셔 채용 (신입/경력)</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 강남구</t>
+          <t>서울 &amp;gt; 마포구</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 1, 'max': 3, 'name': '경력 1~3년'}</t>
+          <t>신입/경력</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>{'code': '0', 'name': '학력무관'}</t>
+          <t>대학졸업(2,3년)이상</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>모바일APP</t>
+          <t>웹에이전시</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>[역삼/서울] 헬프데스크 엔지니어 채용</t>
+          <t>급성장하는 뷰티 브랜드 인사총무팀장 신입/경력 채용</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2525,267 +2525,267 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+          <t>경력 7~15년</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>{'code': '6', 'name': '고등학교졸업이상'}</t>
+          <t>대학졸업(2,3년)이상</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>네트웍구축,모바일APP,무선통신,와이브로,유비쿼터스</t>
+          <t>전자상거래</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2024 UX/UI 디자이너 모집</t>
+          <t>[TDCX Korea] 디지털 광고/마케팅  Pre-sales Specialist</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 양천구</t>
+          <t>서울 &amp;gt; 용산구</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+          <t>경력무관</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>{'code': '6', 'name': '고등학교졸업이상'}</t>
+          <t>대학교졸업(4년)이상</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>모바일APP</t>
+          <t>CRM</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>파인원커뮤니케이션즈 경영지원팀 총무 및 인사지원 담당자 채용</t>
+          <t>[ 글로벌 외환 금융 플랫폼] 경영관리실 회계팀 회계팀장</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 금천구</t>
+          <t>서울 &amp;gt; 성동구</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 1, 'max': 3, 'name': '경력 1~3년'}</t>
+          <t>경력10년↑</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+          <t>대학교졸업(4년)이상</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>소프트웨어개발</t>
+          <t>인터넷금융</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SI 프로젝트 사업관리자(PM) 신입/경력 채용</t>
+          <t>UBASE부산/카드분야/09시출근(풀타임)/전화상담 -S30</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>경기 &amp;gt; 성남시 수정구</t>
+          <t>부산 &amp;gt; 강서구,부산 &amp;gt; 금정구,부산 &amp;gt; 남구,부산 &amp;gt; 동구,부산 &amp;gt; 연제구</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>{'code': 3, 'min': 3, 'max': 0, 'name': '신입/경력'}</t>
+          <t>경력무관</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+          <t>학력무관</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>SI·시스템통합,소프트웨어개발,솔루션업체</t>
+          <t>네트웍구축</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Video Production (Junior) 모집</t>
+          <t>SourceUnknown 글로벌 쇼핑몰 온라인MD (경력직)</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 송파구</t>
+          <t>서울 &amp;gt; 중구</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+          <t>경력3년↑</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>{'code': '0', 'name': '학력무관'}</t>
+          <t>대학졸업(2,3년)이상</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>소프트웨어개발</t>
+          <t>쇼핑몰</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>온라인 쇼핑몰 MD 모집</t>
+          <t>[SK C&amp;C USA, Inc.] ERP / MES / IT Infra / FDC 분야 채용</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>부산 &amp;gt; 금정구</t>
+          <t>북·중미 &amp;gt; 미국</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+          <t>경력5년↑</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>{'code': '0', 'name': '학력무관'}</t>
+          <t>대학교졸업(4년)이상</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>쇼핑몰</t>
+          <t>ERP,IT컨설팅,SAP,SCM,셋업</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>검색광고 CX 과장급 채용</t>
+          <t>[오타쿠세상을구하다] 게임 UI, 이펙트 디자이너</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 강남구</t>
+          <t>서울 &amp;gt; 서초구</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 0, 'max': 0, 'name': '경력'}</t>
+          <t>경력무관</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>{'code': '6', 'name': '고등학교졸업이상'}</t>
+          <t>학력무관</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>모바일APP</t>
+          <t>게임</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>[광화문센터] KT 휴대폰 인바운드 상담사 (정규직 채용)</t>
+          <t>[오타쿠세상을구하다] 캐릭터 일러스트</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 노원구,서울 &amp;gt; 동대문구,서울 &amp;gt; 성북구,서울 &amp;gt; 용산구,서울 &amp;gt; 중구,경기 &amp;gt; 고양시,경기 &amp;gt; 김포시,경기 &amp;gt; 남양주시,경기 &amp;gt; 부천시,경기 &amp;gt; 의정부시</t>
+          <t>서울 &amp;gt; 서초구</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+          <t>경력무관</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>{'code': '0', 'name': '학력무관'}</t>
+          <t>학력무관</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>컨텐츠제공</t>
+          <t>게임</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>[서울 강남 본사] 이비즈네트웍스 임대지원팀 사무보조 채용</t>
+          <t>PC 상품기획 /컴퓨터 리뷰 / 상품스펙 관리</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 서울전체,서울 &amp;gt; 강남구,서울 &amp;gt; 서초구,서울 &amp;gt; 성동구,서울 &amp;gt; 송파구</t>
+          <t>서울 &amp;gt; 영등포구</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>{'code': 3, 'min': 1, 'max': 0, 'name': '신입/경력'}</t>
+          <t>경력무관</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>{'code': '0', 'name': '학력무관'}</t>
+          <t>대학졸업(2,3년)이상</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>소프트웨어개발</t>
+          <t>B2B,B2C,가격비교,쇼핑몰,오픈마켓</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>재무기획 경력 채용 [웰컴금융그룹]</t>
+          <t>홍보마케팅팀 / 온라인마케팅/ 바이럴마케팅/사업제휴</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 용산구</t>
+          <t>서울 &amp;gt; 영등포구</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 2, 'max': 0, 'name': '경력2년↑'}</t>
+          <t>경력무관</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+          <t>대학졸업(2,3년)이상</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>SI·시스템통합</t>
+          <t>B2B,B2C,가격비교,쇼핑몰,전자상거래</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>검색광고 CX 정규직 사원 채용</t>
+          <t>ㅣICTㅣ사업기획(영업) (과장/차장급)</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2795,618 +2795,618 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>{'code': 1, 'min': 0, 'max': 0, 'name': '신입'}</t>
+          <t>경력7년↑</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>{'code': '6', 'name': '고등학교졸업이상'}</t>
+          <t>대학졸업(2,3년)이상</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>모바일APP</t>
+          <t>보안,보안컨설팅,정보보안</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>콘텐츠 마케터 영입(주니어급/정규직/강남본사)</t>
+          <t>ㅣICTㅣSI 영업 (차장/부장급)</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 서초구</t>
+          <t>서울 &amp;gt; 강남구</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 2, 'max': 0, 'name': '경력2년↑'}</t>
+          <t>경력10년↑</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>{'code': '8', 'name': '대학교졸업(4년)이상'}</t>
+          <t>대학졸업(2,3년)이상</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>IT컨설팅</t>
+          <t>보안,보안컨설팅,정보보안</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>웹 시스템 유지보수 개발자 채용(경력)</t>
+          <t>긴급 [ICT] 정보보호전문서비스 영업 (팀장/ 실장급)</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 금천구</t>
+          <t>서울 &amp;gt; 서울전체</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+          <t>경력10년↑</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+          <t>대학졸업(2,3년)이상</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>소프트웨어개발,솔루션업체</t>
+          <t>소프트웨어개발</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>(주)시즐 2024 상반기 프로젝트 운영(PM) 정규직 모집(경력)</t>
+          <t>남성복 의류 관리 및  물류직원 구합니다.</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>인천 &amp;gt; 인천전체,인천 &amp;gt; 미추홀구,인천 &amp;gt; 연수구</t>
+          <t>서울 &amp;gt; 성북구</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+          <t>경력무관</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+          <t>고등학교졸업이상</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>DataMining,DBMS,NI·네트워크통합,소프트웨어개발,시스템관리</t>
+          <t>쇼핑몰,오픈마켓,전자상거래</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>[무선전기전자시험기관] 전기안전Test 시험원</t>
+          <t>삼성에듀닷컴 온라인교육 운영 / 고객 지원 채용</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>경기 &amp;gt; 안양시 동안구</t>
+          <t>서울 &amp;gt; 은평구</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+          <t>경력무관</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+          <t>대학졸업(2,3년)이상</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>무선통신,통신</t>
+          <t>인터넷교육</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>광고영업AE 정규직 사원 채용</t>
+          <t>국내 IT 대기업, 글로벌 기업 기술 제휴/투자/계약 담당자 초빙</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 강남구</t>
+          <t>경기 &amp;gt; 성남시 분당구</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>{'code': 1, 'min': 0, 'max': 0, 'name': '신입'}</t>
+          <t>경력6년↑</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>{'code': '6', 'name': '고등학교졸업이상'}</t>
+          <t>대학교졸업(4년)이상</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>모바일APP</t>
+          <t>통신</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>[구로센터] KT 인터넷 AS 접수 상담사 (정규직 채용)</t>
+          <t>영상디자인&amp;광고마케팅&amp;웹디자인 외 정규직 채용(경력무관)</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 관악구,서울 &amp;gt; 구로구,서울 &amp;gt; 금천구,서울 &amp;gt; 마포구,서울 &amp;gt; 영등포구,경기 &amp;gt; 광명시,경기 &amp;gt; 군포시,경기 &amp;gt; 김포시,경기 &amp;gt; 부천시,경기 &amp;gt; 화성시</t>
+          <t>경남 &amp;gt; 양산시</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+          <t>경력무관</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>{'code': '0', 'name': '학력무관'}</t>
+          <t>학력무관</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>컨텐츠제공</t>
+          <t>모바일APP</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>[메타에듀시스] 2024 경력직원 채용공고(통합)/안동</t>
+          <t>[IT 기업] 사업전략</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>경북 &amp;gt; 안동시</t>
+          <t>서울 &amp;gt; 금천구</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>{'code': 3, 'min': 1, 'max': 0, 'name': '신입/경력'}</t>
+          <t>경력2년↑</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>{'code': '0', 'name': '학력무관'}</t>
+          <t>학력무관</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>소프트웨어개발,솔루션업체</t>
+          <t>전자상거래</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>[원주센터] KT 인터넷 해약 전담 상담사 (정규직 채용)</t>
+          <t>국내 IT 대기업, 프론트엔드 개발자 초빙</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>강원 &amp;gt; 원주시,강원 &amp;gt; 횡성군</t>
+          <t>경기 &amp;gt; 성남시 분당구</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+          <t>경력6년↑</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>{'code': '0', 'name': '학력무관'}</t>
+          <t>대학교졸업(4년)이상</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>컨텐츠제공</t>
+          <t>통신</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>광고 마케터 정규직 사원 채용</t>
+          <t>국내 IT 대기업, 보안기획 담당자 초빙</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 강남구</t>
+          <t>경기 &amp;gt; 성남시 분당구</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>{'code': 3, 'min': 0, 'max': 0, 'name': '신입/경력'}</t>
+          <t>경력6년↑</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>{'code': '6', 'name': '고등학교졸업이상'}</t>
+          <t>대학교졸업(4년)이상</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>모바일APP</t>
+          <t>통신</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>[ATTO] 자금 담당자 채용</t>
+          <t>[채널톡] Sales Coordinator (1년 계약직)</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 서초구</t>
+          <t>서울 &amp;gt; 강남구</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 3, 'max': 10, 'name': '경력 3~10년'}</t>
+          <t>신입/경력</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>{'code': '0', 'name': '학력무관'}</t>
+          <t>학력무관</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>소프트웨어개발</t>
+          <t>솔루션업체</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>온라인몰 영업관리 및 지원 사원</t>
+          <t>정부 R&amp;D 사업비 담당자 2y+</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 마포구</t>
+          <t>서울 &amp;gt; 서울전체,서울 &amp;gt; 서초구,경기 &amp;gt; 경기전체</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>{'code': 1, 'min': 0, 'max': 0, 'name': '신입'}</t>
+          <t>경력 2~8년</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>{'code': '6', 'name': '고등학교졸업이상'}</t>
+          <t>대학교졸업(4년)이상</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>B2B,B2C,쇼핑몰,전자상거래</t>
+          <t>소프트웨어개발</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>[외국계 무선전기전자시험기관] 안전보건환경 HSE 담당</t>
+          <t>국내 IT 대기업, IT 교육 기획/운영 담당자 초빙</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>경기 &amp;gt; 안양시 동안구</t>
+          <t>서울 &amp;gt; 성동구</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+          <t>경력7년↑</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+          <t>대학교졸업(4년)이상</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>무선통신,통신</t>
+          <t>통신</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>[ESTsecurity]  기업 영업 담당자 (경력)</t>
+          <t>[경력] 온라인쇼핑몰 - 상품관리 특가기획 마케팅 MD 경력직</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 서초구</t>
+          <t>경기 &amp;gt; 김포시</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 3, 'max': 7, 'name': '경력 3~7년'}</t>
+          <t>경력무관</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>{'code': '0', 'name': '학력무관'}</t>
+          <t>학력무관</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>소프트웨어개발,솔루션업체</t>
+          <t>B2B,B2C,쇼핑몰,오픈마켓,전자상거래</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>[TmaxSoft/관리] 보훈대상자 정규직 특별채용 (인사/비서)</t>
+          <t>(주)에프원 유플러스 유성온천(봉명동) 신입/경력 모집</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>경기 &amp;gt; 성남시 분당구</t>
+          <t>대전 &amp;gt; 유성구</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+          <t>경력무관</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+          <t>학력무관</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>소프트웨어개발</t>
+          <t>모바일,통신</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>디지털 마케터 정규직 사원 채용</t>
+          <t>[AI 세금신고 1위 SSEM] 네이티브 앱 개발자 (안드로이드, iOS)</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 강남구</t>
+          <t>서울 &amp;gt; 영등포구</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>{'code': 3, 'min': 0, 'max': 0, 'name': '신입/경력'}</t>
+          <t>경력 2~20년</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>{'code': '6', 'name': '고등학교졸업이상'}</t>
+          <t>학력무관</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>모바일APP</t>
+          <t>소프트웨어개발</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>[ATTO] 시스템 엔지니어 모집</t>
+          <t>헌터코리아 포랩 온라인 MD (과장/팀장급) 모집</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 서초구</t>
+          <t>서울 &amp;gt; 마포구</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 4, 'max': 10, 'name': '경력 4~10년'}</t>
+          <t>경력 5~10년</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>{'code': '6', 'name': '고등학교졸업이상'}</t>
+          <t>대학졸업(2,3년)이상</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>소프트웨어개발</t>
+          <t>B2B,B2C,쇼핑몰,전자상거래</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>[크루(드라이버)모집] 파라다이스시티 전담 업무 수행</t>
+          <t>쇼핑몰 AMD 업무 채용합니다. 꼭 한번만 읽어주세요</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>경기 &amp;gt; 광명시,경기 &amp;gt; 김포시,경기 &amp;gt; 안산시,경기 &amp;gt; 안산시 단원구,경기 &amp;gt; 안산시 상록구,인천 &amp;gt; 미추홀구,인천 &amp;gt; 동구,인천 &amp;gt; 서구,인천 &amp;gt; 연수구,인천 &amp;gt; 중구</t>
+          <t>대구 &amp;gt; 수성구</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+          <t>경력무관</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>{'code': '0', 'name': '학력무관'}</t>
+          <t>대학교졸업(4년)이상</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>소프트웨어개발</t>
+          <t>쇼핑몰,오픈마켓,전자상거래</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>홈페이지 유지보수 경력사원 모집</t>
+          <t>[인텐더] 인플루언서 마케터 인턴 채용</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>경기 &amp;gt; 수원시 권선구</t>
+          <t>서울 &amp;gt; 마포구</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 1, 'max': 5, 'name': '경력 1~5년'}</t>
+          <t>신입</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>{'code': '7', 'name': '대학졸업(2,3년)이상'}</t>
+          <t>대학졸업(2,3년)이상</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>SI·시스템통합,시스템관리</t>
+          <t>전자상거래</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>인터넷 온라인 쇼핑몰 로샵 포장 아르바이트모집 (신입가능)</t>
+          <t>[마이 클리닉 매니저] 프로덕트 디자이너</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>경북 &amp;gt; 경산시</t>
+          <t>서울 &amp;gt; 강남구</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+          <t>경력3년↑</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>{'code': '0', 'name': '학력무관'}</t>
+          <t>학력무관</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>쇼핑몰,오픈마켓</t>
+          <t>소프트웨어개발</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>[이지노이지] 브랜드 생산 디자이너 경력직 채용</t>
+          <t>[소하임] 상세페이지, 오픈마켓, 웹디자인外 정규직 채용합니다</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>서울 &amp;gt; 성북구</t>
+          <t>부산 &amp;gt; 사상구</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 3, 'max': 0, 'name': '경력3년↑'}</t>
+          <t>경력무관</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>{'code': '0', 'name': '학력무관'}</t>
+          <t>학력무관</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>전자상거래</t>
+          <t>쇼핑몰,오픈마켓,전자상거래</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>(유)위드컴퍼니 영업파트 정직원 모집(도매팀)</t>
+          <t>에듀테크 교육용SW (개발팀) 신입/경력 채용</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>전북 &amp;gt; 군산시,전북 &amp;gt; 익산시,전북 &amp;gt; 전주시 덕진구,전북 &amp;gt; 전주시 완산구</t>
+          <t>부산 &amp;gt; 강서구,부산 &amp;gt; 사상구,부산 &amp;gt; 사하구,경남 &amp;gt; 김해시,경남 &amp;gt; 창원시</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+          <t>경력무관</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>{'code': '6', 'name': '고등학교졸업이상'}</t>
+          <t>대학졸업(2,3년)이상</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>PDA·스마트폰,모바일,무선통신,통신</t>
+          <t>소프트웨어개발</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>(유)위드컴퍼니 CS파트 정직원 모집(도매팀)</t>
+          <t>[뷰티카테고리] 입점몰 MD 채용</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>전북 &amp;gt; 군산시,전북 &amp;gt; 익산시,전북 &amp;gt; 전주시 덕진구,전북 &amp;gt; 전주시 완산구</t>
+          <t>서울 &amp;gt; 동대문구</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>{'code': 0, 'min': 0, 'max': 0, 'name': '경력무관'}</t>
+          <t>경력1년↑</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>{'code': '6', 'name': '고등학교졸업이상'}</t>
+          <t>학력무관</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>PDA·스마트폰,모바일,무선통신,통신</t>
+          <t>B2C,쇼핑몰,오픈마켓,전자상거래</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>CS Manager (채팅 상담 전문가) 정규직 채용</t>
+          <t>[재택/프리랜서]한국어-독일어,영어,스페인어 번역가 구인</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3416,17 +3416,17 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>{'code': 2, 'min': 1, 'max': 5, 'name': '경력 1~5년'}</t>
+          <t>경력무관</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>{'code': '0', 'name': '학력무관'}</t>
+          <t>학력무관</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>소프트웨어개발,솔루션업체</t>
+          <t>컨텐츠제공</t>
         </is>
       </c>
     </row>
